--- a/icsd3-mappings/icsd3-sof-mapping.xlsx
+++ b/icsd3-mappings/icsd3-sof-mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -111,70 +111,82 @@
     <t>v8ediab</t>
   </si>
   <si>
-    <t>oai4p</t>
-  </si>
-  <si>
-    <t>Obstructive Apnea Index 4% oxygen desaturation</t>
-  </si>
-  <si>
-    <t>oai4pa</t>
-  </si>
-  <si>
-    <t>Obstructive Apnea Index 4% oxygen desaturation or arousal</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>rdi3p</t>
-  </si>
-  <si>
-    <t>Overall RDI at 3% oxygen desaturation</t>
-  </si>
-  <si>
-    <t>rdi3pa</t>
-  </si>
-  <si>
-    <t>Overall RDI at 3% oxygen desaturation or arousal</t>
-  </si>
-  <si>
-    <t>rdi4p</t>
-  </si>
-  <si>
-    <t>Overall RDI at 4% oxygen desaturation</t>
-  </si>
-  <si>
-    <t>rdi4pa</t>
-  </si>
-  <si>
-    <t>Overall RDI at 4% oxygen desaturation or arousal</t>
-  </si>
-  <si>
-    <t>rdi5p</t>
-  </si>
-  <si>
-    <t>Overall RDI at 5% oxygen desaturation</t>
-  </si>
-  <si>
-    <t>rdi5pa</t>
-  </si>
-  <si>
-    <t>Overall RDI at 5% oxygen desaturation or arousal</t>
-  </si>
-  <si>
-    <t>cai4p</t>
-  </si>
-  <si>
-    <t>Central Apnea Index 4% oxygen desaturation</t>
-  </si>
-  <si>
-    <t>cai4pa</t>
-  </si>
-  <si>
-    <t>Central Apnea index 4% oxygen desaturation or arousal</t>
+    <t>ahi_a0h3</t>
+  </si>
+  <si>
+    <t>AHI 3% -- all apneas and hypopneas with &gt;=3% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_a0h3a</t>
+  </si>
+  <si>
+    <t>AHI 3% -- all apneas and hypopneas with &gt;=3% oxygen desaturation or arousal</t>
+  </si>
+  <si>
+    <t>ahi_a0h4</t>
+  </si>
+  <si>
+    <t>AHI 4% -- all apneas and hypopneas with &gt;=4% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_a0h4a</t>
+  </si>
+  <si>
+    <t>AHI 4% -- all apneas and hypopneas with &gt;=4% oxygen desaturation or arousal</t>
+  </si>
+  <si>
+    <t>ahi_c0h3</t>
+  </si>
+  <si>
+    <t>Central AHI 3% -- central apneas and hypopneas with &gt;=3% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_c0h3a</t>
+  </si>
+  <si>
+    <t>Central AHI 3% -- central apneas and hypopneas with &gt;=3% oxygen desaturation or arousal</t>
+  </si>
+  <si>
+    <t>ahi_c0h4</t>
+  </si>
+  <si>
+    <t>Central AHI 4% -- central apneas and hypopneas with &gt;=4% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_c0h4a</t>
+  </si>
+  <si>
+    <t>Central AHI 4% -- central apneas and hypopneas with &gt;=4% oxygen desaturation or arousal</t>
+  </si>
+  <si>
+    <t>ahi_o0h3</t>
+  </si>
+  <si>
+    <t>Obstructive AHI 3% -- obstructive apneas and hypopneas with &gt;=3% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_o0h3a</t>
+  </si>
+  <si>
+    <t>Obstructive AHI 3% -- obstructive apneas and hypopneas with &gt;=3% oxygen desaturation or arousal</t>
+  </si>
+  <si>
+    <t>ahi_o0h4</t>
+  </si>
+  <si>
+    <t>Obstructive AHI 4% -- obstructive apneas and hypopneas with &gt;=4% oxygen desaturation</t>
+  </si>
+  <si>
+    <t>ahi_o0h4a</t>
+  </si>
+  <si>
+    <t>Obstructive AHI 4% -- obstructive apneas and hypopneas with &gt;=4% oxygen desaturation or arousal</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,13 +764,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -766,13 +778,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -780,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -794,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -808,10 +820,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -819,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -830,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -841,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -852,10 +864,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -863,32 +875,32 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>8</v>
+      <c r="A28" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -896,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -907,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -918,10 +930,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -929,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -940,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -951,10 +963,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -962,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -973,10 +985,54 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
